--- a/doc/機能一覧/機能一覧_F2_fireworks.xlsx
+++ b/doc/機能一覧/機能一覧_F2_fireworks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\機能一覧\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E53B6-3B58-48FC-B59F-57AE6008FB6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="12795"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -135,13 +141,134 @@
     <rPh sb="0" eb="2">
       <t>ゲンゴ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID,PWを入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザーの情報の保存(ID,PW,mail)</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWのリセット(mailを入力)</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存機能</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在地をマップに出力する機能</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの拡大縮小機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップのスクロール機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的地までの経路案内機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したスポットをアイコンでマップに表示できる機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したスポットをリストで表示できる機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したスポットの詳細を見られる機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経路を保存する機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を保存する機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したスポットの情報を保存する機能</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -262,12 +389,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -309,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +472,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,24 +716,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -580,7 +744,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -591,26 +755,26 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -636,175 +800,259 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -816,7 +1064,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -828,7 +1076,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -840,7 +1088,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -852,7 +1100,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -864,7 +1112,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -876,7 +1124,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -888,7 +1136,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -900,7 +1148,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -912,7 +1160,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -924,7 +1172,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -936,7 +1184,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>26</v>
       </c>
@@ -948,7 +1196,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>27</v>
       </c>
@@ -960,7 +1208,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>28</v>
       </c>
@@ -972,7 +1220,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>29</v>
       </c>
@@ -993,16 +1241,17 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,12 +1259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/機能一覧/機能一覧_F2_fireworks.xlsx
+++ b/doc/機能一覧/機能一覧_F2_fireworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\機能一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E53B6-3B58-48FC-B59F-57AE6008FB6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C28C30-34DF-4671-800C-B38A8F7A0ADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2810" yWindow="1640" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -262,6 +262,10 @@
   </si>
   <si>
     <t>指定したスポットの情報を保存する機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -720,7 +724,7 @@
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -814,9 +818,13 @@
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -832,9 +840,13 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -850,9 +862,13 @@
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -868,9 +884,13 @@
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -886,9 +906,13 @@
       <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
@@ -904,9 +928,13 @@
       <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>6</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
@@ -922,9 +950,13 @@
       <c r="F14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>7</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
@@ -940,9 +972,13 @@
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>8</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -958,9 +994,13 @@
       <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>9</v>
+      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -976,9 +1016,13 @@
       <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -994,9 +1038,13 @@
       <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>11</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
@@ -1012,9 +1060,13 @@
       <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>12</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
@@ -1030,9 +1082,13 @@
       <c r="F20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>13</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
@@ -1048,9 +1104,13 @@
       <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>14</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">

--- a/doc/機能一覧/機能一覧_F2_fireworks.xlsx
+++ b/doc/機能一覧/機能一覧_F2_fireworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\機能一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C28C30-34DF-4671-800C-B38A8F7A0ADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81064AD9-44C8-4D32-A63A-25DE0E917F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2810" yWindow="1640" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
     <col min="3" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
   </cols>

--- a/doc/機能一覧/機能一覧_F2_fireworks.xlsx
+++ b/doc/機能一覧/機能一覧_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\機能一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81064AD9-44C8-4D32-A63A-25DE0E917F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8785D9-057A-4020-BB55-5980AB5D4A0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -165,53 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID,PWを入力</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ユーザー登録</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ユーザーの情報の保存(ID,PW,mail)</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PWのリセット(mailを入力)</t>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保存機能</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Webアプリ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -245,27 +198,199 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保存したスポットをリストで表示できる機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>保存したスポットの詳細を見られる機能</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>経路を保存する機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像を保存する機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定したスポットの情報を保存する機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2project</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memoly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的地検索機能</t>
+    <rPh sb="0" eb="3">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したスポットをマップの目的地に設定する機能</t>
+    <rPh sb="13" eb="16">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したスポットを検索できる機能</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したスポットを更新できる機能</t>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したスポットを削除できる機能</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストーリー機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存した画像をスライドショーで表示できる機能</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録機能</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWリセット機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したスポットをリストで見られる機能</t>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターがユーザーをナビゲートする機能</t>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F017</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -355,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +507,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,17 +855,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
@@ -741,36 +877,48 @@
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="9">
+        <v>45084</v>
+      </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9">
+        <v>45084</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
@@ -809,21 +957,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -831,21 +979,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -853,21 +1001,21 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -875,21 +1023,21 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -897,21 +1045,21 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -919,21 +1067,21 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="2">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -941,21 +1089,21 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="2">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -963,21 +1111,21 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="2">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -985,51 +1133,51 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="2">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
@@ -1038,259 +1186,343 @@
       <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="2">
-        <v>11</v>
+      <c r="G18" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="2">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="2">
-        <v>13</v>
+      <c r="G20" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="2">
-        <v>14</v>
+      <c r="G21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/機能一覧/機能一覧_F2_fireworks.xlsx
+++ b/doc/機能一覧/機能一覧_F2_fireworks.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\機能一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8785D9-057A-4020-BB55-5980AB5D4A0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCA2F61-D64D-4B2D-A015-5981B5AEC45E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -326,71 +324,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F008</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F011</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F012</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F013</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F014</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F015</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F016</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F017</t>
+    <t>FL01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FL02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FL03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FM04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FM05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FM01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FM02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FM03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FM06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FU01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FU02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FU03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FL04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FL05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FL06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FS01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FC01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +415,15 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -480,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,12 +498,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -511,10 +512,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -855,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J42"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -874,81 +875,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>45084</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>45084</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -967,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
@@ -989,7 +990,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
@@ -1011,7 +1012,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
@@ -1033,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2" t="s">
@@ -1055,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2" t="s">
@@ -1077,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
@@ -1099,7 +1100,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
@@ -1121,7 +1122,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2" t="s">
@@ -1150,7 +1151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -1165,14 +1166,14 @@
         <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1187,14 +1188,14 @@
         <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -1209,14 +1210,14 @@
         <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1325,204 +1326,6 @@
       <c r="I24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1535,30 +1338,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>